--- a/unittests/data/sample.xlsx
+++ b/unittests/data/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t># This is sample dataset</t>
   </si>
@@ -31,13 +31,43 @@
     <t>dummy</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>born</t>
+    <t>name0</t>
+  </si>
+  <si>
+    <t>toy0</t>
+  </si>
+  <si>
+    <t>born0</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>toy1</t>
+  </si>
+  <si>
+    <t>born1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>toy2</t>
+  </si>
+  <si>
+    <t>born2</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>toy3</t>
+  </si>
+  <si>
+    <t>born3</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>Alfred</t>
@@ -66,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -84,6 +114,73 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -94,30 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,29 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -179,14 +231,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,29 +262,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +276,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,169 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,9 +472,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +507,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,171 +567,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,13 +980,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -998,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,40 +1038,419 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>14726</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14726</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14726</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2">
+        <v>14726</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>16438</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16438</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2">
+        <v>16438</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16438</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14726</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14726</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14726</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2">
+        <v>14726</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16438</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16438</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>16438</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <v>16438</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14726</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14726</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>14726</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2">
+        <v>14726</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16438</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16438</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16438</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="2">
+        <v>16438</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
